--- a/Lab7/Power _Cost_Estimate.xlsx
+++ b/Lab7/Power _Cost_Estimate.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jon\Documents\UT Schoolwork\EE445L\ee445l\Lab7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23460" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23460" windowHeight="8180"/>
   </bookViews>
   <sheets>
     <sheet name="Power Estimation" sheetId="1" r:id="rId1"/>
     <sheet name="Price Estimation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Power Supply:</t>
   </si>
@@ -82,6 +80,9 @@
   </si>
   <si>
     <t>RFP Power MosFET</t>
+  </si>
+  <si>
+    <t>OPA2350 OpAmp</t>
   </si>
 </sst>
 </file>
@@ -115,29 +116,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -145,23 +146,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -244,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,19 +467,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -492,7 +493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -510,7 +511,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -528,9 +529,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -539,14 +540,14 @@
         <v>3.3</v>
       </c>
       <c r="D4" s="1">
-        <v>1.4999999999999999E-4</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>4.9499999999999989E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.4749999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -564,7 +565,7 @@
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -582,20 +583,20 @@
         <v>5.7600000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(D2:D6)</f>
-        <v>2.1040800000000002</v>
+        <v>2.1114299999999999</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E6)</f>
-        <v>24.340610999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24.364865999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -615,7 +616,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -623,16 +629,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -646,7 +652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -654,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -662,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -670,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -678,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -688,5 +694,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Lab7/Power _Cost_Estimate.xlsx
+++ b/Lab7/Power _Cost_Estimate.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jon\Documents\UT Schoolwork\EE445L\ee445l\Lab7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23460" windowHeight="8180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23460" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Power Estimation" sheetId="1" r:id="rId1"/>
     <sheet name="Price Estimation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Power Supply:</t>
   </si>
@@ -49,49 +54,188 @@
     <t>Switches</t>
   </si>
   <si>
-    <t>LM741 OpAmp</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
     <t>TM4C123 w/Display</t>
   </si>
   <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity </t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Included</t>
-  </si>
-  <si>
-    <t>TM4C1234</t>
-  </si>
-  <si>
-    <t>TEC</t>
-  </si>
-  <si>
-    <t>Temp. Sensor</t>
-  </si>
-  <si>
-    <t>RFP Power MosFET</t>
-  </si>
-  <si>
     <t>OPA2350 OpAmp</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Unit cost</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>Carbon 1/6W, 5%, 10K</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>Test point, red</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>Ceramic, Z5U, -20/+80%, 0.1 uF</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3F tactile push button switch </t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>Thermoelectric Cooler</t>
+  </si>
+  <si>
+    <t>Heat Sink</t>
+  </si>
+  <si>
+    <t>Ceramic, Z5U, -20/+80%, 0.01 uF</t>
+  </si>
+  <si>
+    <t>CAP-Tant</t>
+  </si>
+  <si>
+    <t>Tantalum, 16V, 10% 4.7 uF</t>
+  </si>
+  <si>
+    <t>Ceramic, X7R, 20%, 1 uF</t>
+  </si>
+  <si>
+    <t>Ceramic C0G, 10%, 10 pF</t>
+  </si>
+  <si>
+    <t>OPAMP</t>
+  </si>
+  <si>
+    <t>Test point, black</t>
+  </si>
+  <si>
+    <t>Logic Analyzer connector</t>
+  </si>
+  <si>
+    <t>JTAG 1 by 5 male header</t>
+  </si>
+  <si>
+    <t>CRYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NX5032GA-16.000000</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>LM2937 3.3 V regulator TO220, 500mA</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-bit color 128*160 1.8" TFT LCD display </t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>TM4C123GH6PM 64-pin LQFP</t>
+  </si>
+  <si>
+    <t>Red 1.6V 1mA 5mm diffused</t>
+  </si>
+  <si>
+    <t>LM62 Analog Temperature Sensor</t>
+  </si>
+  <si>
+    <t>JACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC Power MALE 2.1mm </t>
+  </si>
+  <si>
+    <t>Tantalum, 16V, 20% 2.2 uF</t>
+  </si>
+  <si>
+    <t>Carbon 1/6W, 5%, 1M</t>
+  </si>
+  <si>
+    <t>Carbon 1/6W, 5%, 470</t>
+  </si>
+  <si>
+    <t>2-pin header</t>
+  </si>
+  <si>
+    <t>Carbon 1/6W, 5%, 100K</t>
+  </si>
+  <si>
+    <t>TRAN</t>
+  </si>
+  <si>
+    <t>IRF540 MOSFET N-channel, TO220</t>
+  </si>
+  <si>
+    <t>Total System Cost</t>
+  </si>
+  <si>
+    <t>Actual Money Spent</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>DC 12V 3A Wall adapter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -170,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,6 +329,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +613,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,19 +623,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -493,9 +649,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -511,7 +667,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -529,9 +685,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -547,7 +703,7 @@
         <v>2.4749999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -565,9 +721,9 @@
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -583,7 +739,7 @@
         <v>5.7600000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -596,7 +752,7 @@
         <v>24.364865999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -627,73 +783,559 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="A29:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="G1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="D2" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E2" s="9">
+        <f>A2*D2</f>
+        <v>0.14400000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="E3" s="9">
+        <f>A3*D3</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="G3" s="12">
+        <f>SUM(E2:E29)</f>
+        <v>69.77600000000001</v>
+      </c>
+      <c r="I3" s="12">
+        <f>E6+E7+E29</f>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <f>A4*D4</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="E5" s="9">
+        <f>A5*D5</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="E6" s="9">
+        <f>A6*D6</f>
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <f>A7*D7</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="9">
+        <f>A8*D8</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="E9" s="9">
+        <f>A9*D9</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="E10" s="9">
+        <f>A10*D10</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="E11" s="9">
+        <f>A11*D11</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="E12" s="9">
+        <f>A12*D12</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="E13" s="9">
+        <f>A13*D13</f>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="E14" s="9">
+        <f>A14*D14</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E15" s="9">
+        <f>A15*D15</f>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="E16" s="9">
+        <f>A16*D16</f>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.17</v>
+      </c>
+      <c r="E17" s="9">
+        <f>A17*D17</f>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="9">
+        <v>19.96</v>
+      </c>
+      <c r="E18" s="9">
+        <f>A18*D18</f>
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="9">
+        <v>11.55</v>
+      </c>
+      <c r="E19" s="9">
+        <f>A19*D19</f>
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="C20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E20" s="9">
+        <f>A20*D20</f>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="E21" s="9">
+        <f>A21*D21</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>1</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E22" s="9">
+        <f>A22*D22</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>1</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E23" s="9">
+        <f>A23*D23</f>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>1</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E24" s="9">
+        <f>A24*D24</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E25" s="9">
+        <f>A25*D25</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="9">
+        <f>A26*D26</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>1</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E27" s="9">
+        <f>A27*D27</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="E28" s="9">
+        <f>A28*D28</f>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>1</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="13">
+        <v>8</v>
+      </c>
+      <c r="E29" s="9">
+        <f>A29*D29</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
